--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20648" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DB872A-952D-430E-9449-ABFD085A7CA6}"/>
+  <xr:revisionPtr revIDLastSave="20650" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4009CE2A-A757-464D-A9CD-96B48BC79CA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -655,9 +655,6 @@
     <t>Fabio Fognini (ITALY)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Jan Hernych (CZECH REPUBLIC)</t>
   </si>
   <si>
@@ -2285,6 +2282,9 @@
   </si>
   <si>
     <t>Jordan Thompson (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -4845,10 +4845,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5152,7 +5148,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5187,7 +5183,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -5196,7 +5192,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -5210,13 +5206,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5224,7 +5220,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -5238,18 +5234,18 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -5272,7 +5268,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -5286,7 +5282,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -5306,13 +5302,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5334,7 +5330,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -5348,7 +5344,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5362,7 +5358,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -5373,7 +5369,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -5382,13 +5378,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5396,7 +5392,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -5410,7 +5406,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -5424,7 +5420,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -5435,7 +5431,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -5444,7 +5440,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -5458,7 +5454,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -5478,7 +5474,7 @@
         <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
@@ -5489,7 +5485,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -5512,7 +5508,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -5526,7 +5522,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -5537,7 +5533,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -5546,7 +5542,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -5560,7 +5556,7 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
@@ -5571,7 +5567,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -5580,18 +5576,18 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -5600,13 +5596,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5628,7 +5624,7 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -5656,18 +5652,18 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -5682,7 +5678,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5690,7 +5686,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
@@ -5701,7 +5697,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
@@ -5710,7 +5706,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -5724,18 +5720,18 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
@@ -5744,13 +5740,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5764,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5803,7 +5799,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -5818,7 +5814,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5840,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -5854,7 +5850,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5874,13 +5870,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5888,18 +5884,18 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5908,7 +5904,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -5928,7 +5924,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5947,7 +5943,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -5956,13 +5952,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +6010,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6043,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6051,13 +6047,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6071,13 +6067,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6090,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6129,7 +6125,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6138,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6152,7 +6148,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6166,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6180,7 +6176,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -6200,7 +6196,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -6214,13 +6210,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6234,13 +6230,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6248,7 +6244,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -6268,13 +6264,13 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6282,13 +6278,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6307,7 +6303,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -6316,13 +6312,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6330,13 +6326,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6350,7 +6346,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -6364,7 +6360,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -6384,7 +6380,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6412,13 +6408,13 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6432,13 +6428,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6452,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,18 +6456,18 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -6486,7 +6482,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6494,7 +6490,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6508,13 +6504,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6522,13 +6518,13 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6536,13 +6532,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6570,13 +6566,13 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6584,13 +6580,13 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6604,7 +6600,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -6612,13 +6608,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6632,7 +6628,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6649,12 +6645,12 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -6663,18 +6659,18 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -6683,13 +6679,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6711,7 +6707,7 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -6725,7 +6721,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -6739,7 +6735,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -6750,7 +6746,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -6759,7 +6755,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -6773,7 +6769,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -6804,24 +6800,24 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6837,8 +6833,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,7 +6869,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6882,7 +6878,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6896,13 +6892,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6910,7 +6906,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6924,18 +6920,18 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -6944,13 +6940,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6978,13 +6974,13 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6998,7 +6994,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7012,7 +7008,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -7037,7 +7033,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -7046,7 +7042,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -7060,13 +7056,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7080,13 +7076,13 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7094,7 +7090,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7133,7 +7129,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -7142,7 +7138,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -7156,13 +7152,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7176,13 +7172,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7196,7 +7192,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7210,7 +7206,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7224,13 +7220,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7244,12 +7240,12 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -7292,7 +7288,7 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -7306,7 +7302,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -7326,13 +7322,13 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7340,7 +7336,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -7354,7 +7350,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -7374,13 +7370,13 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7388,13 +7384,13 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7402,13 +7398,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7416,13 +7412,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7436,7 +7432,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7444,18 +7440,18 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -7464,7 +7460,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -7478,18 +7474,18 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -7498,13 +7494,13 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7512,7 +7508,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -7526,13 +7522,13 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7560,12 +7556,12 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -7574,13 +7570,13 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7588,13 +7584,13 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7608,7 +7604,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -7616,7 +7612,7 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -7627,7 +7623,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -7636,13 +7632,13 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7650,7 +7646,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -7664,13 +7660,13 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7678,7 +7674,7 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -7698,7 +7694,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7712,7 +7708,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -7726,7 +7722,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -7740,13 +7736,13 @@
         <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -7763,7 +7759,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7807,7 +7803,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7821,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7849,13 +7845,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7869,13 +7865,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7883,13 +7879,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7897,18 +7893,18 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -7917,7 +7913,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7931,18 +7927,18 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -7951,7 +7947,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -7979,13 +7975,13 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7993,7 +7989,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8007,7 +8003,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -8027,7 +8023,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -8047,7 +8043,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8055,13 +8051,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -8103,7 +8099,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8117,13 +8113,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8145,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -8159,13 +8155,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,7 +8169,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
@@ -8184,7 +8180,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -8193,7 +8189,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -8207,13 +8203,13 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -8227,7 +8223,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -8241,13 +8237,13 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8267,7 +8263,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -8275,13 +8271,13 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8289,13 +8285,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,7 +8299,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -8317,13 +8313,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8331,13 +8327,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -8351,13 +8347,13 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8371,7 +8367,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8379,13 +8375,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -8399,7 +8395,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -8407,18 +8403,18 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -8427,7 +8423,7 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -8441,7 +8437,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -8455,13 +8451,13 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8489,7 +8485,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -8503,13 +8499,13 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8517,13 +8513,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8537,13 +8533,13 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8551,13 +8547,13 @@
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8571,7 +8567,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8579,13 +8575,13 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8593,13 +8589,13 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8607,13 +8603,13 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8627,12 +8623,12 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -8641,7 +8637,7 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -8655,13 +8651,13 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8669,7 +8665,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8689,7 +8685,7 @@
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8697,7 +8693,7 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -8708,7 +8704,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -8717,13 +8713,13 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8731,13 +8727,13 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
+        <v>734</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
         <v>735</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" t="s">
-        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -8754,7 +8750,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="3" sqref="E2:E3 E8:E9 E12:E14 E17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8789,7 +8785,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -8798,7 +8794,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -8812,7 +8808,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -8826,18 +8822,18 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8846,13 +8842,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8866,7 +8862,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -8880,7 +8876,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -8900,7 +8896,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,13 +8910,13 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -8928,13 +8924,13 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -8942,13 +8938,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -8956,13 +8952,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -8976,7 +8972,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8993,10 +8989,10 @@
         <v>53</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" t="s">
         <v>227</v>
-      </c>
-      <c r="F18" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -9013,7 +9009,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9048,22 +9044,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9080,7 +9076,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9115,22 +9111,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9147,7 +9143,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9182,7 +9178,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -9191,7 +9187,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -9214,18 +9210,18 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9705,7 +9701,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9740,7 +9736,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -9760,7 +9756,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -9769,7 +9765,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -9794,7 +9790,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -9803,18 +9799,18 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -9834,7 +9830,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -9843,18 +9839,18 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -9863,18 +9859,18 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -9883,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -9897,7 +9893,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -9911,7 +9907,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -9925,7 +9921,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -9950,7 +9946,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -9959,7 +9955,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -9973,18 +9969,18 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -10004,7 +10000,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -10013,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -10027,7 +10023,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -10047,7 +10043,7 @@
         <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -10061,7 +10057,7 @@
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -10075,7 +10071,7 @@
         <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -10089,13 +10085,13 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -10109,7 +10105,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
@@ -10120,7 +10116,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -10143,7 +10139,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -10168,7 +10164,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -10177,13 +10173,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -10203,7 +10199,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10211,13 +10207,13 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10225,13 +10221,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -10245,7 +10241,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -10265,7 +10261,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10284,7 +10280,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -10293,7 +10289,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -10327,7 +10323,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10335,13 +10331,13 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -10355,7 +10351,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -10369,7 +10365,7 @@
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -10383,13 +10379,13 @@
         <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -10397,7 +10393,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -10417,12 +10413,12 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -10431,7 +10427,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -10445,13 +10441,13 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -10513,7 +10509,7 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -10524,7 +10520,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -10533,7 +10529,7 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -10547,7 +10543,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -10567,7 +10563,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10601,7 +10597,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10620,7 +10616,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -10649,7 +10645,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -10667,7 +10663,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10702,16 +10698,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -10722,7 +10718,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -10739,7 +10735,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -10753,13 +10749,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -10773,7 +10769,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -10793,7 +10789,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -10813,7 +10809,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10830,12 +10826,12 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -10864,18 +10860,18 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
@@ -10884,12 +10880,12 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
         <v>152</v>
@@ -10912,7 +10908,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -10926,7 +10922,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -10937,7 +10933,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -10980,7 +10976,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -10994,13 +10990,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -11014,7 +11010,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -11022,7 +11018,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -11039,7 +11035,7 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -11050,18 +11046,18 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -11076,7 +11072,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -11084,13 +11080,13 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11110,7 +11106,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -11124,13 +11120,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11158,7 +11154,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -11192,7 +11188,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -11206,13 +11202,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -11232,7 +11228,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -11246,12 +11242,12 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -11266,7 +11262,7 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -11274,18 +11270,18 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -11294,13 +11290,13 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -11314,7 +11310,7 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
@@ -11362,7 +11358,7 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -11390,13 +11386,13 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11430,7 +11426,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -11450,7 +11446,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -11478,7 +11474,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -11492,13 +11488,13 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -11512,18 +11508,18 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -11538,7 +11534,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -11572,7 +11568,7 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -11591,7 +11587,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -11606,7 +11602,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -11648,13 +11644,13 @@
         <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -11700,7 +11696,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11735,7 +11731,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -11764,13 +11760,13 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -11784,7 +11780,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -11798,7 +11794,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -11832,7 +11828,7 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -11846,7 +11842,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -11886,7 +11882,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -11894,7 +11890,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -11914,13 +11910,13 @@
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -11948,7 +11944,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11968,7 +11964,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -11982,7 +11978,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -11996,7 +11992,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -12016,7 +12012,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -12030,7 +12026,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -12058,7 +12054,7 @@
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -12078,12 +12074,12 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -12134,7 +12130,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -12148,7 +12144,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -12159,7 +12155,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -12196,7 +12192,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -12210,7 +12206,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -12235,7 +12231,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -12244,7 +12240,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -12297,7 +12293,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -12306,7 +12302,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -12320,7 +12316,7 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -12334,7 +12330,7 @@
         <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -12348,7 +12344,7 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -12382,13 +12378,13 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -12396,13 +12392,13 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -12416,7 +12412,7 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12430,7 +12426,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12444,7 +12440,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -12461,7 +12457,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -12472,7 +12468,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12486,13 +12482,13 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -12528,7 +12524,7 @@
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -12542,7 +12538,7 @@
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -12562,13 +12558,13 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12579,10 +12575,10 @@
         <v>126</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" t="s">
         <v>227</v>
-      </c>
-      <c r="F71" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -12602,7 +12598,7 @@
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -12635,7 +12631,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -12644,7 +12640,7 @@
         <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
@@ -12658,7 +12654,7 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
@@ -12731,13 +12727,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
         <v>83</v>
@@ -12751,7 +12747,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
         <v>85</v>
@@ -12760,12 +12756,12 @@
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
         <v>79</v>
@@ -12791,7 +12787,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12809,7 +12805,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:C73"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12859,7 +12855,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12881,7 +12877,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -12895,7 +12891,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -12915,13 +12911,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -12929,7 +12925,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -12943,13 +12939,13 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -12957,7 +12953,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -12977,12 +12973,12 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -12991,7 +12987,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -13030,7 +13026,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -13039,7 +13035,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -13087,13 +13083,13 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13107,7 +13103,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -13115,7 +13111,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -13129,7 +13125,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -13149,7 +13145,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -13191,13 +13187,13 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -13211,7 +13207,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -13284,7 +13280,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -13293,13 +13289,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -13355,7 +13351,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -13375,7 +13371,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13389,7 +13385,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13403,7 +13399,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -13417,7 +13413,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -13431,7 +13427,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13451,7 +13447,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13459,13 +13455,13 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -13476,7 +13472,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -13487,7 +13483,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -13498,7 +13494,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -13507,7 +13503,7 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -13521,13 +13517,13 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13535,13 +13531,13 @@
         <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13569,7 +13565,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -13583,7 +13579,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -13597,7 +13593,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -13611,13 +13607,13 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13631,7 +13627,7 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -13645,7 +13641,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -13679,7 +13675,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -13687,13 +13683,13 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -13701,7 +13697,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -13715,7 +13711,7 @@
         <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -13729,7 +13725,7 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -13749,7 +13745,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -13763,7 +13759,7 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
@@ -13774,7 +13770,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -13789,7 +13785,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -13803,13 +13799,13 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -13823,7 +13819,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -13837,18 +13833,18 @@
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -13862,7 +13858,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
@@ -13871,12 +13867,12 @@
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
         <v>103</v>
@@ -13893,13 +13889,13 @@
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -13931,7 +13927,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13981,7 +13977,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13995,7 +13991,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14003,13 +13999,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -14017,7 +14013,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -14080,7 +14076,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14115,7 +14111,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -14130,7 +14126,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14138,7 +14134,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -14158,13 +14154,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -14172,18 +14168,18 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -14192,7 +14188,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -14212,7 +14208,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -14220,7 +14216,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -14245,7 +14241,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -14254,7 +14250,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -14268,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -14307,7 +14303,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -14316,7 +14312,7 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -14330,7 +14326,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -14344,7 +14340,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -14412,7 +14408,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -14420,7 +14416,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -14440,7 +14436,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -14454,7 +14450,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -14462,7 +14458,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
@@ -14482,7 +14478,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -14502,7 +14498,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -14510,7 +14506,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -14530,12 +14526,12 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -14544,13 +14540,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -14572,7 +14568,7 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -14586,13 +14582,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -14611,7 +14607,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -14626,7 +14622,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14634,7 +14630,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -14648,13 +14644,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" t="s">
         <v>227</v>
-      </c>
-      <c r="F44" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -14668,13 +14664,13 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14682,13 +14678,13 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -14702,7 +14698,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -14716,7 +14712,7 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -14730,7 +14726,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -14744,13 +14740,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14770,7 +14766,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14784,7 +14780,7 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -14798,7 +14794,7 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -14806,13 +14802,13 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -14823,18 +14819,18 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -14849,7 +14845,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -14891,7 +14887,7 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
@@ -14917,7 +14913,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -14945,13 +14941,13 @@
         <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -14959,13 +14955,13 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -14979,7 +14975,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -14996,7 +14992,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -15007,12 +15003,12 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -15041,7 +15037,7 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -15055,7 +15051,7 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -15069,13 +15065,13 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -15089,12 +15085,12 @@
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -15103,7 +15099,7 @@
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
@@ -15117,7 +15113,7 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
@@ -15131,7 +15127,7 @@
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -15145,13 +15141,13 @@
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -15162,13 +15158,13 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -15179,7 +15175,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -15196,7 +15192,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15231,7 +15227,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -15254,7 +15250,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -15274,13 +15270,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15288,13 +15284,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -15302,13 +15298,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15322,7 +15318,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15336,12 +15332,12 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -15350,13 +15346,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15364,7 +15360,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -15392,7 +15388,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -15417,7 +15413,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -15432,7 +15428,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -15440,13 +15436,13 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -15460,7 +15456,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15468,7 +15464,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -15479,7 +15475,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -15488,7 +15484,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -15502,7 +15498,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -15522,7 +15518,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -15536,7 +15532,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -15550,7 +15546,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -15570,7 +15566,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -15578,13 +15574,13 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15612,7 +15608,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -15626,7 +15622,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -15657,29 +15653,29 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -15688,13 +15684,13 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -15702,7 +15698,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -15722,7 +15718,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15730,7 +15726,7 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -15741,7 +15737,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>743</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -15750,7 +15746,7 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -15770,7 +15766,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -15778,7 +15774,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -15792,7 +15788,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -15806,13 +15802,13 @@
         <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -15826,13 +15822,13 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -15874,13 +15870,13 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -15888,13 +15884,13 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -15902,13 +15898,13 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -15916,13 +15912,13 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15936,7 +15932,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -15950,13 +15946,13 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -15970,7 +15966,7 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -15984,7 +15980,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -15998,12 +15994,12 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -16012,7 +16008,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -16032,7 +16028,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -16046,7 +16042,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -16060,7 +16056,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -16074,7 +16070,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -16094,7 +16090,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -16108,7 +16104,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -16128,7 +16124,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -16136,7 +16132,7 @@
         <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -16170,13 +16166,13 @@
         <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -16184,13 +16180,13 @@
         <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -16198,13 +16194,13 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -16218,7 +16214,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -16232,7 +16228,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -16249,7 +16245,7 @@
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -16263,13 +16259,13 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -16277,7 +16273,7 @@
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -16291,13 +16287,13 @@
         <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -16305,7 +16301,7 @@
         <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
@@ -16316,7 +16312,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -16339,7 +16335,7 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>16</v>
@@ -16353,13 +16349,13 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -16367,7 +16363,7 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -16387,7 +16383,7 @@
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -16415,7 +16411,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>17</v>
@@ -16426,13 +16422,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
         <v>103</v>
@@ -16441,12 +16437,12 @@
         <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
         <v>195</v>
@@ -16460,7 +16456,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
         <v>196</v>
@@ -16469,7 +16465,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -16501,7 +16497,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16545,13 +16541,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -16565,7 +16561,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16573,18 +16569,18 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -16593,7 +16589,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -16613,7 +16609,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16635,7 +16631,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -16649,7 +16645,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -16660,7 +16656,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -16669,13 +16665,13 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16694,7 +16690,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -16703,13 +16699,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16717,7 +16713,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -16731,7 +16727,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -16779,7 +16775,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -16793,7 +16789,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -16813,7 +16809,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16835,13 +16831,13 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -16855,13 +16851,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -16875,7 +16871,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -16895,7 +16891,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -16909,7 +16905,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -16923,13 +16919,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -16943,13 +16939,13 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -16957,7 +16953,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -16971,13 +16967,13 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -16991,13 +16987,13 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -17005,13 +17001,13 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -17019,13 +17015,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -17039,7 +17035,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -17053,7 +17049,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -17067,12 +17063,12 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -17081,7 +17077,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -17095,7 +17091,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -17109,13 +17105,13 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -17123,7 +17119,7 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -17137,13 +17133,13 @@
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -17157,13 +17153,13 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -17171,7 +17167,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
@@ -17211,7 +17207,7 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -17219,13 +17215,13 @@
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -17233,13 +17229,13 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -17259,7 +17255,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -17267,13 +17263,13 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -17287,13 +17283,13 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -17301,7 +17297,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -17315,13 +17311,13 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -17335,7 +17331,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -17343,18 +17339,18 @@
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -17369,7 +17365,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -17377,13 +17373,13 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -17405,7 +17401,7 @@
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -17425,12 +17421,12 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -17439,7 +17435,7 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -17453,7 +17449,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -17481,13 +17477,13 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -17501,7 +17497,7 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -17515,13 +17511,13 @@
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -17529,7 +17525,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -17549,32 +17545,32 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
         <v>103</v>
@@ -17583,12 +17579,12 @@
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
         <v>79</v>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20650" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4009CE2A-A757-464D-A9CD-96B48BC79CA8}"/>
+  <xr:revisionPtr revIDLastSave="20651" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA8C363-67AA-4457-BCAE-28851C4D7374}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4760,7 +4760,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4772,7 +4772,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5147,21 +5147,21 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5763,21 +5763,21 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5974,21 +5974,21 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6089,21 +6089,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6834,20 +6834,20 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7758,21 +7758,21 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8749,21 +8749,21 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9008,21 +9008,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9075,21 +9075,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9142,21 +9142,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9210,22 +9210,22 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9700,21 +9700,21 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10662,21 +10662,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11695,21 +11695,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12804,21 +12804,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13926,21 +13926,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14075,21 +14075,21 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15191,21 +15191,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16496,21 +16496,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20651" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA8C363-67AA-4457-BCAE-28851C4D7374}"/>
+  <xr:revisionPtr revIDLastSave="20652" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6864E3A-197B-41C6-9211-94D7CC024D28}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4845,6 +4845,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5148,20 +5152,20 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5764,20 +5768,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5975,20 +5979,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6090,20 +6094,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6287,7 +6291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6834,20 +6838,20 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6887,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7759,20 +7763,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7874,7 +7878,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7902,7 +7906,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +8002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8266,7 +8270,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8546,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8612,7 +8616,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8750,20 +8754,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8919,7 +8923,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8947,7 +8951,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9009,20 +9013,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9076,20 +9080,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9143,20 +9147,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9211,21 +9215,21 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9267,7 +9271,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9289,7 +9293,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9311,7 +9315,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9333,7 +9337,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9355,7 +9359,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9376,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9439,7 +9443,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9481,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9565,7 +9569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9607,7 +9611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9701,20 +9705,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9888,7 +9892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9902,7 +9906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10220,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10282,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10344,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10388,7 +10392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10402,7 +10406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10436,7 +10440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10566,7 +10570,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10663,20 +10667,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10716,7 +10720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10778,7 +10782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10798,7 +10802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10849,7 +10853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10951,7 +10955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10999,7 +11003,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11013,7 +11017,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11129,7 +11133,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11299,7 +11303,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11319,7 +11323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11353,7 +11357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11367,7 +11371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11415,7 +11419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11433,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11463,7 +11467,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11517,7 +11521,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11585,7 +11589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11619,7 +11623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11696,20 +11700,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11919,7 +11923,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11947,7 +11951,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11981,7 +11985,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12001,7 +12005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12063,7 +12067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12097,7 +12101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12111,7 +12115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12153,7 +12157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12173,7 +12177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12201,7 +12205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12249,7 +12253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12277,7 +12281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12291,7 +12295,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12311,7 +12315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12325,7 +12329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12339,7 +12343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12367,7 +12371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +12405,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12419,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12601,7 +12605,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12649,7 +12653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12711,7 +12715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12729,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12745,7 +12749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12763,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12773,7 +12777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12805,20 +12809,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12872,7 +12876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12934,7 +12938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12952,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12976,7 +12980,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13092,7 +13096,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13106,7 +13110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13196,7 +13200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13378,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13392,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13464,7 +13468,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13492,7 +13496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13554,7 +13558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13602,7 +13606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13616,7 +13620,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13630,7 +13634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13752,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13768,7 +13772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13788,7 +13792,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13822,7 +13826,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13836,7 +13840,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13870,7 +13874,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13884,7 +13888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13927,20 +13931,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13960,7 +13964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14042,7 +14046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14076,20 +14080,20 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14143,7 +14147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14177,7 +14181,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14197,7 +14201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14225,7 +14229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14239,7 +14243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14273,7 +14277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14287,7 +14291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14301,7 +14305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14321,7 +14325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14335,7 +14339,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14425,7 +14429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14457,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14487,7 +14491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14515,7 +14519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14529,7 +14533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14549,7 +14553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14563,7 +14567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14591,7 +14595,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14605,7 +14609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14639,7 +14643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14687,7 +14691,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14701,7 +14705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14749,7 +14753,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14773,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14787,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14797,7 +14801,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14811,7 +14815,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14828,7 +14832,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14848,7 +14852,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14862,7 +14866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +14886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14896,7 +14900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14916,7 +14920,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14950,7 +14954,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14968,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14978,7 +14982,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15006,7 +15010,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15026,7 +15030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15092,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15108,7 +15112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15122,7 +15126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15171,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15192,20 +15196,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15259,7 +15263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15293,7 +15297,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15307,7 +15311,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15321,7 +15325,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15369,7 +15373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15397,7 +15401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15431,7 +15435,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15473,7 +15477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15507,7 +15511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15521,7 +15525,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15535,7 +15539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15555,7 +15559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15573,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +15739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15755,7 +15759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15769,7 +15773,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +15787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15797,7 +15801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15811,7 +15815,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15859,7 +15863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15879,7 +15883,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15893,7 +15897,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15921,7 +15925,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15935,7 +15939,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16017,7 +16021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16031,7 +16035,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16045,7 +16049,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16127,7 +16131,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16175,7 +16179,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16203,7 +16207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16231,7 +16235,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16248,7 +16252,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16268,7 +16272,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16282,7 +16286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16310,7 +16314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16344,7 +16348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16358,7 +16362,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16372,7 +16376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16406,7 +16410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16454,7 +16458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16468,7 +16472,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16497,20 +16501,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16530,7 +16534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16550,7 +16554,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16578,7 +16582,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16626,7 +16630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16674,7 +16678,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16708,7 +16712,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16722,7 +16726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16736,7 +16740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16784,7 +16788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16826,7 +16830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16840,7 +16844,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16928,7 +16932,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17010,7 +17014,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17038,7 +17042,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17052,7 +17056,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17066,7 +17070,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17100,7 +17104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17114,7 +17118,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17142,7 +17146,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17162,7 +17166,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17210,7 +17214,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17224,7 +17228,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17238,7 +17242,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17272,7 +17276,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17292,7 +17296,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17334,7 +17338,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17352,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17368,7 +17372,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17382,7 +17386,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17504,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17534,7 +17538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17548,7 +17552,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17582,7 +17586,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20652" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6864E3A-197B-41C6-9211-94D7CC024D28}"/>
+  <xr:revisionPtr revIDLastSave="20654" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D247EBB-611C-48F8-A464-D050188A975D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4845,10 +4845,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5152,7 +5148,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5768,7 +5764,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5979,7 +5975,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6094,7 +6090,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6838,7 +6834,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7763,7 +7759,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8754,7 +8750,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9013,7 +9009,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9080,7 +9076,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9147,7 +9143,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9215,7 +9211,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9705,7 +9701,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10667,7 +10663,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11700,7 +11696,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12809,7 +12805,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13931,7 +13927,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14080,7 +14076,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15196,7 +15192,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16501,7 +16497,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20654" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D247EBB-611C-48F8-A464-D050188A975D}"/>
+  <xr:revisionPtr revIDLastSave="20655" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C5B777-16AA-44F0-9715-0B01FFF77088}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4845,6 +4845,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5151,17 +5155,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5767,17 +5771,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5817,7 +5821,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5927,7 +5931,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5978,17 +5982,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6028,7 +6032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6093,17 +6097,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6205,7 +6209,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6287,7 +6291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6837,17 +6841,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6887,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6901,7 +6905,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7099,7 +7103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7147,7 +7151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7181,7 +7185,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7393,7 +7397,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7487,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7611,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7762,17 +7766,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7874,7 +7878,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7902,7 +7906,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7956,7 +7960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +8002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8266,7 +8270,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8322,7 +8326,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8398,7 +8402,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8412,7 +8416,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8546,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8612,7 +8616,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8722,7 +8726,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8753,17 +8757,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8919,7 +8923,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8947,7 +8951,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8961,7 +8965,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9012,17 +9016,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,7 +9046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9079,17 +9083,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9146,17 +9150,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9214,18 +9218,18 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9267,7 +9271,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9289,7 +9293,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9311,7 +9315,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9333,7 +9337,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9355,7 +9359,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9376,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9418,7 +9422,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9439,7 +9443,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9481,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9565,7 +9569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9607,7 +9611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9704,17 +9708,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9888,7 +9892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9902,7 +9906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9964,7 +9968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9978,7 +9982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10018,7 +10022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10220,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10250,7 +10254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10282,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10344,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10354,7 +10358,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10388,7 +10392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10402,7 +10406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10436,7 +10440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10566,7 +10570,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10614,7 +10618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10666,17 +10670,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10716,7 +10720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10730,7 +10734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10778,7 +10782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10798,7 +10802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10849,7 +10853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10921,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10951,7 +10955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10999,7 +11003,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11013,7 +11017,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11129,7 +11133,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11299,7 +11303,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11319,7 +11323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11353,7 +11357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11367,7 +11371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11415,7 +11419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11433,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11463,7 +11467,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11517,7 +11521,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11585,7 +11589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11619,7 +11623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11699,17 +11703,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11749,7 +11753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11769,7 +11773,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11919,7 +11923,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11947,7 +11951,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11981,7 +11985,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12001,7 +12005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12063,7 +12067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12097,7 +12101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12111,7 +12115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12153,7 +12157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12173,7 +12177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12201,7 +12205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12249,7 +12253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12277,7 +12281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12291,7 +12295,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12311,7 +12315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12325,7 +12329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12339,7 +12343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12367,7 +12371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +12405,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12419,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12567,7 +12571,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12581,7 +12585,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12601,7 +12605,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12649,7 +12653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12677,7 +12681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12711,7 +12715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12729,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12745,7 +12749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12763,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12773,7 +12777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12808,17 +12812,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12838,7 +12842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12872,7 +12876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12934,7 +12938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12952,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12976,7 +12980,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13092,7 +13096,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13106,7 +13110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13168,7 +13172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13182,7 +13186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13196,7 +13200,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13210,7 +13214,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13298,7 +13302,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13378,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13392,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13464,7 +13468,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13492,7 +13496,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13554,7 +13558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13602,7 +13606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13616,7 +13620,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13630,7 +13634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13752,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13768,7 +13772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13788,7 +13792,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13808,7 +13812,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13822,7 +13826,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13836,7 +13840,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13870,7 +13874,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13884,7 +13888,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13930,17 +13934,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13960,7 +13964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13994,7 +13998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +14012,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14042,7 +14046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14079,17 +14083,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14143,7 +14147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14163,7 +14167,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14177,7 +14181,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14197,7 +14201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14225,7 +14229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14239,7 +14243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14273,7 +14277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14287,7 +14291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14301,7 +14305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14321,7 +14325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14335,7 +14339,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14425,7 +14429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14457,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14487,7 +14491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14515,7 +14519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14529,7 +14533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14549,7 +14553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14563,7 +14567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14591,7 +14595,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14605,7 +14609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14639,7 +14643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14687,7 +14691,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14701,7 +14705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14749,7 +14753,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14773,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14787,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14797,7 +14801,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14811,7 +14815,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14828,7 +14832,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14848,7 +14852,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14862,7 +14866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +14886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14896,7 +14900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14916,7 +14920,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14950,7 +14954,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14968,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14978,7 +14982,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15006,7 +15010,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15026,7 +15030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15092,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15108,7 +15112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15122,7 +15126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15171,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15195,17 +15199,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15259,7 +15263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15293,7 +15297,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15307,7 +15311,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15321,7 +15325,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15369,7 +15373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15397,7 +15401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15431,7 +15435,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15459,7 +15463,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15473,7 +15477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15507,7 +15511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15521,7 +15525,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15535,7 +15539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15555,7 +15559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15573,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15617,7 +15621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15721,7 +15725,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +15739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15755,7 +15759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15769,7 +15773,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +15787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15797,7 +15801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15811,7 +15815,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15859,7 +15863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15879,7 +15883,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15893,7 +15897,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15921,7 +15925,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15935,7 +15939,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15983,7 +15987,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16017,7 +16021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16031,7 +16035,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16045,7 +16049,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16127,7 +16131,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16175,7 +16179,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16203,7 +16207,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16231,7 +16235,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16248,7 +16252,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16268,7 +16272,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16282,7 +16286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16310,7 +16314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16344,7 +16348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16358,7 +16362,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16372,7 +16376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16406,7 +16410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16454,7 +16458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16468,7 +16472,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16500,17 +16504,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16530,7 +16534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16550,7 +16554,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16564,7 +16568,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16578,7 +16582,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16598,7 +16602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16626,7 +16630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16674,7 +16678,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16688,7 +16692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16708,7 +16712,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16722,7 +16726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16736,7 +16740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16784,7 +16788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16812,7 +16816,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16826,7 +16830,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16840,7 +16844,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16928,7 +16932,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17010,7 +17014,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17038,7 +17042,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17052,7 +17056,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17066,7 +17070,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17100,7 +17104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17114,7 +17118,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17142,7 +17146,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17162,7 +17166,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17210,7 +17214,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17224,7 +17228,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17238,7 +17242,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17272,7 +17276,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17292,7 +17296,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17334,7 +17338,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17352,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17368,7 +17372,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17382,7 +17386,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17396,7 +17400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17410,7 +17414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17472,7 +17476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17486,7 +17490,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17504,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17534,7 +17538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17548,7 +17552,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17582,7 +17586,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20655" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C5B777-16AA-44F0-9715-0B01FFF77088}"/>
+  <xr:revisionPtr revIDLastSave="20656" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E02930-703D-4B14-A36C-CAFB7F3FED9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4845,10 +4845,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5155,17 +5151,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5433,7 +5429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5623,7 +5619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5637,7 +5633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5771,17 +5767,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5801,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5982,17 +5978,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6012,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6032,7 +6028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6046,7 +6042,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6097,17 +6093,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6189,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6209,7 +6205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6277,7 +6273,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6325,7 +6321,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6335,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6359,7 +6355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6503,7 +6499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6531,7 +6527,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6545,7 +6541,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6559,7 +6555,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6579,7 +6575,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6768,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6796,7 +6792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6813,7 +6809,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6841,17 +6837,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6905,7 +6901,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6919,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6933,7 +6929,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6953,7 +6949,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -7001,7 +6997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7021,7 +7017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7035,7 +7031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7069,7 +7065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7131,7 +7127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7165,7 +7161,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7185,7 +7181,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7213,7 +7209,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7233,7 +7229,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7281,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7349,7 +7345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7363,7 +7359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7425,7 +7421,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7439,7 +7435,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7449,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7487,7 +7483,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7563,7 +7559,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7766,17 +7762,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7816,7 +7812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7844,7 +7840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7878,7 +7874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7892,7 +7888,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7906,7 +7902,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7926,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7940,7 +7936,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7988,7 +7984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8154,7 +8150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8168,7 +8164,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8182,7 +8178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8284,7 +8280,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8416,7 +8412,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8574,7 +8570,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8588,7 +8584,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8616,7 +8612,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8630,7 +8626,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8664,7 +8660,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8678,7 +8674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8692,7 +8688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8706,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8726,7 +8722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8757,17 +8753,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +8831,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8889,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8923,7 +8919,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8985,7 +8981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9016,17 +9012,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9083,17 +9079,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9150,17 +9146,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9180,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9218,18 +9214,18 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9271,7 +9267,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9293,7 +9289,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9315,7 +9311,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9337,7 +9333,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9359,7 +9355,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9380,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9401,7 +9397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9443,7 +9439,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9464,7 +9460,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9485,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9506,7 +9502,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9611,7 +9607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9708,17 +9704,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9792,7 +9788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9812,7 +9808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9832,7 +9828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9920,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9948,7 +9944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9968,7 +9964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -10002,7 +9998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10022,7 +10018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10070,7 +10066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10084,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10098,7 +10094,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10138,7 +10134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10220,7 +10216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10254,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10268,7 +10264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10282,7 +10278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10316,7 +10312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10344,7 +10340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10392,7 +10388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10406,7 +10402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10420,7 +10416,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10440,7 +10436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10542,7 +10538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10590,7 +10586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10604,7 +10600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10670,17 +10666,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10700,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10720,7 +10716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10734,7 +10730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10748,7 +10744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10782,7 +10778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10833,7 +10829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10853,7 +10849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10901,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10921,7 +10917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10935,7 +10931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10955,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10989,7 +10985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -11003,7 +10999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11017,7 +11013,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11031,7 +11027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11048,7 +11044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11059,7 +11055,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11079,7 +11075,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11133,7 +11129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11153,7 +11149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11167,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11187,7 +11183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11201,7 +11197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11215,7 +11211,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11235,7 +11231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11249,7 +11245,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11269,7 +11265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11283,7 +11279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11303,7 +11299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11323,7 +11319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11343,7 +11339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11357,7 +11353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11371,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11385,7 +11381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11399,7 +11395,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11419,7 +11415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11433,7 +11429,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11481,7 +11477,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11521,7 +11517,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11561,7 +11557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11575,7 +11571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11589,7 +11585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11609,7 +11605,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11623,7 +11619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11643,7 +11639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11657,7 +11653,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11671,7 +11667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11703,17 +11699,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11733,7 +11729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11773,7 +11769,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11787,7 +11783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11821,7 +11817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11889,7 +11885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11903,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11923,7 +11919,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11937,7 +11933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11951,7 +11947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11971,7 +11967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11985,7 +11981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12005,7 +12001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12019,7 +12015,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12033,7 +12029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12047,7 +12043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12067,7 +12063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12081,7 +12077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12101,7 +12097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12115,7 +12111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12129,7 +12125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12143,7 +12139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12157,7 +12153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12177,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12191,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12205,7 +12201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12219,7 +12215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12253,7 +12249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12267,7 +12263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12315,7 +12311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12329,7 +12325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12343,7 +12339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12371,7 +12367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12391,7 +12387,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12433,7 +12429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12447,7 +12443,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12475,7 +12471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12551,7 +12547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12605,7 +12601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12653,7 +12649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12667,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12681,7 +12677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12695,7 +12691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12715,7 +12711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12729,7 +12725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12749,7 +12745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12777,7 +12773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12812,17 +12808,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12862,7 +12858,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12876,7 +12872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12890,7 +12886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12904,7 +12900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12938,7 +12934,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12952,7 +12948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12966,7 +12962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12980,7 +12976,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -13000,7 +12996,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13014,7 +13010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13028,7 +13024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13048,7 +13044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13076,7 +13072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13096,7 +13092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13110,7 +13106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13124,7 +13120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13138,7 +13134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13158,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13172,7 +13168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13186,7 +13182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13200,7 +13196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13234,7 +13230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13254,7 +13250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13268,7 +13264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13282,7 +13278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13302,7 +13298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13316,7 +13312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13330,7 +13326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13344,7 +13340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13364,7 +13360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13378,7 +13374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13406,7 +13402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13420,7 +13416,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13434,7 +13430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13454,7 +13450,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13468,7 +13464,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13485,7 +13481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13530,7 +13526,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13544,7 +13540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13558,7 +13554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13572,7 +13568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13606,7 +13602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13620,7 +13616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13634,7 +13630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13668,7 +13664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13696,7 +13692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13710,7 +13706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13724,7 +13720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13738,7 +13734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13752,7 +13748,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13772,7 +13768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13792,7 +13788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13812,7 +13808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13826,7 +13822,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13840,7 +13836,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13860,7 +13856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13874,7 +13870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13888,7 +13884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13902,7 +13898,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13934,17 +13930,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13964,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13984,7 +13980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13998,7 +13994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14012,7 +14008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14026,7 +14022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14046,7 +14042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14083,17 +14079,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14113,7 +14109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14133,7 +14129,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14147,7 +14143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14167,7 +14163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14201,7 +14197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14215,7 +14211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14229,7 +14225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14243,7 +14239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14263,7 +14259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14277,7 +14273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14305,7 +14301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14325,7 +14321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14353,7 +14349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14381,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14401,7 +14397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14415,7 +14411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14429,7 +14425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14443,7 +14439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14457,7 +14453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14471,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14491,7 +14487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14505,7 +14501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14519,7 +14515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14533,7 +14529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14553,7 +14549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14567,7 +14563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14581,7 +14577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14595,7 +14591,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14609,7 +14605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14643,7 +14639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14657,7 +14653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14677,7 +14673,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14691,7 +14687,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14705,7 +14701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14725,7 +14721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14739,7 +14735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14753,7 +14749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14773,7 +14769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14787,7 +14783,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14801,7 +14797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14815,7 +14811,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14832,7 +14828,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14852,7 +14848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14866,7 +14862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14886,7 +14882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14900,7 +14896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14920,7 +14916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14934,7 +14930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14954,7 +14950,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14968,7 +14964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14982,7 +14978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14999,7 +14995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15010,7 +15006,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15030,7 +15026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15050,7 +15046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15064,7 +15060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15078,7 +15074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15092,7 +15088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15140,7 +15136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15154,7 +15150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15171,7 +15167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15199,17 +15195,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15249,7 +15245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15263,7 +15259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15283,7 +15279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15297,7 +15293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15311,7 +15307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15325,7 +15321,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15373,7 +15369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15387,7 +15383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15401,7 +15397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15435,7 +15431,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15449,7 +15445,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15463,7 +15459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15497,7 +15493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15511,7 +15507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15525,7 +15521,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15539,7 +15535,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15559,7 +15555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15573,7 +15569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15587,7 +15583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15601,7 +15597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15621,7 +15617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15666,7 +15662,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15677,7 +15673,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15697,7 +15693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15711,7 +15707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15725,7 +15721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15739,7 +15735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15759,7 +15755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15773,7 +15769,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15787,7 +15783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15801,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15815,7 +15811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15835,7 +15831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15849,7 +15845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15863,7 +15859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15883,7 +15879,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15897,7 +15893,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15911,7 +15907,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15925,7 +15921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15939,7 +15935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15959,7 +15955,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15973,7 +15969,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15987,7 +15983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -16001,7 +15997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16021,7 +16017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16035,7 +16031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16049,7 +16045,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16063,7 +16059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16077,7 +16073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16097,7 +16093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16117,7 +16113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16131,7 +16127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16145,7 +16141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16159,7 +16155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16179,7 +16175,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16193,7 +16189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16207,7 +16203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16221,7 +16217,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16235,7 +16231,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16252,7 +16248,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16272,7 +16268,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16286,7 +16282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16300,7 +16296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16314,7 +16310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16334,7 +16330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16348,7 +16344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16362,7 +16358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16376,7 +16372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16390,7 +16386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16410,7 +16406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16424,7 +16420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16444,7 +16440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16472,7 +16468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16504,17 +16500,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16534,7 +16530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16554,7 +16550,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16568,7 +16564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16582,7 +16578,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16602,7 +16598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16616,7 +16612,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16630,7 +16626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16644,7 +16640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16658,7 +16654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16678,7 +16674,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16712,7 +16708,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16726,7 +16722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16740,7 +16736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16754,7 +16750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16774,7 +16770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16788,7 +16784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16802,7 +16798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16816,7 +16812,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16830,7 +16826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16844,7 +16840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16864,7 +16860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16884,7 +16880,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16898,7 +16894,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16918,7 +16914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16932,7 +16928,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16966,7 +16962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16980,7 +16976,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -17000,7 +16996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17038,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17056,7 +17052,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17070,7 +17066,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17090,7 +17086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17104,7 +17100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17118,7 +17114,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17132,7 +17128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17146,7 +17142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17166,7 +17162,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17180,7 +17176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17200,7 +17196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17214,7 +17210,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17228,7 +17224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17242,7 +17238,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17262,7 +17258,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17276,7 +17272,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17296,7 +17292,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17310,7 +17306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17324,7 +17320,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17338,7 +17334,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17352,7 +17348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17372,7 +17368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17386,7 +17382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17400,7 +17396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17414,7 +17410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17428,7 +17424,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17448,7 +17444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17462,7 +17458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17476,7 +17472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17490,7 +17486,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17504,7 +17500,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17524,7 +17520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17538,7 +17534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17552,7 +17548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17572,7 +17568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17586,7 +17582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20656" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E02930-703D-4B14-A36C-CAFB7F3FED9D}"/>
+  <xr:revisionPtr revIDLastSave="20657" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF08C17-38F0-4C3D-A2CD-308AEC606B16}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -5151,17 +5151,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5767,17 +5767,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5978,17 +5978,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6093,17 +6093,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6833,21 +6833,21 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7762,17 +7762,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8753,17 +8753,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9012,17 +9012,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9079,17 +9079,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9146,17 +9146,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9214,18 +9214,18 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9704,17 +9704,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10666,17 +10666,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11699,17 +11699,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12808,17 +12808,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13930,17 +13930,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14079,17 +14079,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15195,17 +15195,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16500,17 +16500,17 @@
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -4845,10 +4845,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4886,7 +4890,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4992,7 +4996,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5134,7 +5138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6833,7 +6837,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20657" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF08C17-38F0-4C3D-A2CD-308AEC606B16}"/>
+  <xr:revisionPtr revIDLastSave="20658" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E001B32-5655-4219-88D8-A98C8B667A5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4845,10 +4845,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5152,20 +5148,20 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5433,7 +5429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5623,7 +5619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5637,7 +5633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5768,20 +5764,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5801,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5821,7 +5817,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>533</v>
       </c>
@@ -5979,20 +5975,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6012,7 +6008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6032,7 +6028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6046,7 +6042,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6094,20 +6090,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6189,7 +6185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6209,7 +6205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6277,7 +6273,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>743</v>
       </c>
@@ -6325,7 +6321,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6335,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6359,7 +6355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6441,7 +6437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -6469,7 +6465,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>539</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>19</v>
       </c>
@@ -6503,7 +6499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -6531,7 +6527,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6545,7 +6541,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6559,7 +6555,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6579,7 +6575,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>36</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6768,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>20</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6796,7 +6792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6813,7 +6809,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6838,20 +6834,20 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6905,7 +6901,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6919,7 +6915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6933,7 +6929,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6953,7 +6949,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -7001,7 +6997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7021,7 +7017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7035,7 +7031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7069,7 +7065,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7131,7 +7127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>705</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -7165,7 +7161,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7185,7 +7181,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7213,7 +7209,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7233,7 +7229,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7281,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7335,7 +7331,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -7349,7 +7345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -7363,7 +7359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -7397,7 +7393,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>19</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -7425,7 +7421,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7439,7 +7435,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7453,7 +7449,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>713</v>
       </c>
@@ -7473,7 +7469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -7487,7 +7483,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -7521,7 +7517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7563,7 +7559,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>29</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>36</v>
       </c>
@@ -7625,7 +7621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -7659,7 +7655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>29</v>
       </c>
@@ -7673,7 +7669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7763,20 +7759,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7816,7 +7812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7844,7 +7840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7878,7 +7874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -7892,7 +7888,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7906,7 +7902,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7926,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -7940,7 +7936,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7960,7 +7956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -7988,7 +7984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8050,7 +8046,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -8092,7 +8088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8154,7 +8150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -8168,7 +8164,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8182,7 +8178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>743</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -8284,7 +8280,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8416,7 +8412,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>727</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>30</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>23</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8574,7 +8570,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -8588,7 +8584,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8616,7 +8612,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8630,7 +8626,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>713</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -8664,7 +8660,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -8678,7 +8674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8692,7 +8688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -8706,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8726,7 +8722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -8754,20 +8750,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +8831,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>743</v>
       </c>
@@ -8855,7 +8851,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -8889,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8923,7 +8919,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8985,7 +8981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9013,20 +9009,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9080,20 +9076,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9113,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9147,20 +9143,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9180,7 +9176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9215,21 +9211,21 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9271,7 +9267,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9293,7 +9289,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9315,7 +9311,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9337,7 +9333,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9359,7 +9355,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9380,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9401,7 +9397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9443,7 +9439,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9464,7 +9460,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9485,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9506,7 +9502,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9590,7 +9586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9611,7 +9607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9705,20 +9701,20 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9792,7 +9788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9812,7 +9808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9832,7 +9828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9872,7 +9868,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9920,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9948,7 +9944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9968,7 +9964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -10002,7 +9998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10022,7 +10018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10070,7 +10066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10084,7 +10080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10098,7 +10094,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10138,7 +10134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10220,7 +10216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10254,7 +10250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10268,7 +10264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10282,7 +10278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10316,7 +10312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10344,7 +10340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10358,7 +10354,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10392,7 +10388,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10406,7 +10402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10420,7 +10416,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10440,7 +10436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10488,7 +10484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10542,7 +10538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10590,7 +10586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10604,7 +10600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10667,20 +10663,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10700,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10720,7 +10716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10734,7 +10730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10748,7 +10744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10782,7 +10778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10833,7 +10829,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10853,7 +10849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10901,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10921,7 +10917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10935,7 +10931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10955,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10989,7 +10985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -11003,7 +10999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11017,7 +11013,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11031,7 +11027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11048,7 +11044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11059,7 +11055,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11079,7 +11075,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11133,7 +11129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11153,7 +11149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11167,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11187,7 +11183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11201,7 +11197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11215,7 +11211,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11235,7 +11231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11249,7 +11245,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11269,7 +11265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11283,7 +11279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11303,7 +11299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11323,7 +11319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11343,7 +11339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11357,7 +11353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11371,7 +11367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11385,7 +11381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11399,7 +11395,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11419,7 +11415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11433,7 +11429,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11481,7 +11477,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11521,7 +11517,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11561,7 +11557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11575,7 +11571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11589,7 +11585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11609,7 +11605,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11623,7 +11619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11643,7 +11639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11657,7 +11653,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11671,7 +11667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11700,20 +11696,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11733,7 +11729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11773,7 +11769,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11787,7 +11783,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11821,7 +11817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11841,7 +11837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11889,7 +11885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11903,7 +11899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11923,7 +11919,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11937,7 +11933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11951,7 +11947,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11971,7 +11967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11985,7 +11981,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12005,7 +12001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12019,7 +12015,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12033,7 +12029,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12047,7 +12043,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12067,7 +12063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12081,7 +12077,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12101,7 +12097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12115,7 +12111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12129,7 +12125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12143,7 +12139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12157,7 +12153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12177,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12191,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12205,7 +12201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12219,7 +12215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12253,7 +12249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12267,7 +12263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12315,7 +12311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12329,7 +12325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12343,7 +12339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12371,7 +12367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12391,7 +12387,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12405,7 +12401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12433,7 +12429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12447,7 +12443,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12475,7 +12471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12509,7 +12505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12551,7 +12547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12571,7 +12567,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12605,7 +12601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12619,7 +12615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12653,7 +12649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12667,7 +12663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12681,7 +12677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12695,7 +12691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12715,7 +12711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12729,7 +12725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12749,7 +12745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12777,7 +12773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12809,20 +12805,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12862,7 +12858,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12876,7 +12872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12890,7 +12886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12904,7 +12900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12938,7 +12934,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12952,7 +12948,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12966,7 +12962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12980,7 +12976,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -13000,7 +12996,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13014,7 +13010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13028,7 +13024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13048,7 +13044,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13076,7 +13072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13096,7 +13092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13110,7 +13106,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13124,7 +13120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13138,7 +13134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13158,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13172,7 +13168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13186,7 +13182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13200,7 +13196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13234,7 +13230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13254,7 +13250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13268,7 +13264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13282,7 +13278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>743</v>
       </c>
@@ -13302,7 +13298,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13316,7 +13312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13330,7 +13326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13344,7 +13340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13364,7 +13360,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13378,7 +13374,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13406,7 +13402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13420,7 +13416,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13434,7 +13430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13454,7 +13450,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13468,7 +13464,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13485,7 +13481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13530,7 +13526,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13544,7 +13540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13558,7 +13554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13572,7 +13568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13606,7 +13602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13620,7 +13616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13634,7 +13630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13668,7 +13664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13696,7 +13692,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13710,7 +13706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13724,7 +13720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13738,7 +13734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13752,7 +13748,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13772,7 +13768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13792,7 +13788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13812,7 +13808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13826,7 +13822,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13840,7 +13836,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13860,7 +13856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13874,7 +13870,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13888,7 +13884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13902,7 +13898,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13931,20 +13927,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13964,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13984,7 +13980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13998,7 +13994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14012,7 +14008,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14026,7 +14022,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14046,7 +14042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14080,20 +14076,20 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14113,7 +14109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14133,7 +14129,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14147,7 +14143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14167,7 +14163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14201,7 +14197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14215,7 +14211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14229,7 +14225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14243,7 +14239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14263,7 +14259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14277,7 +14273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14291,7 +14287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14305,7 +14301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14325,7 +14321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14353,7 +14349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14381,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14401,7 +14397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14415,7 +14411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14429,7 +14425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14443,7 +14439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14457,7 +14453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14471,7 +14467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14491,7 +14487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14505,7 +14501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14519,7 +14515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14533,7 +14529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14553,7 +14549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14567,7 +14563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14581,7 +14577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14595,7 +14591,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14609,7 +14605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>743</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14643,7 +14639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14657,7 +14653,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14677,7 +14673,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14691,7 +14687,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14705,7 +14701,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14725,7 +14721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14739,7 +14735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14753,7 +14749,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14773,7 +14769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14787,7 +14783,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14801,7 +14797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14815,7 +14811,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14832,7 +14828,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14852,7 +14848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14866,7 +14862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14886,7 +14882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14900,7 +14896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14920,7 +14916,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14934,7 +14930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14954,7 +14950,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14968,7 +14964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14982,7 +14978,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14999,7 +14995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15010,7 +15006,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15030,7 +15026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15050,7 +15046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15064,7 +15060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15078,7 +15074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15092,7 +15088,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15112,7 +15108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15140,7 +15136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15154,7 +15150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15171,7 +15167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15196,20 +15192,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15229,7 +15225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15249,7 +15245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15263,7 +15259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15283,7 +15279,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15297,7 +15293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15311,7 +15307,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15325,7 +15321,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15339,7 +15335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -15373,7 +15369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15387,7 +15383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15401,7 +15397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -15435,7 +15431,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15449,7 +15445,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15463,7 +15459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -15497,7 +15493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -15511,7 +15507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15525,7 +15521,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15539,7 +15535,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15559,7 +15555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15573,7 +15569,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15587,7 +15583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15601,7 +15597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15621,7 +15617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15649,7 +15645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15666,7 +15662,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15677,7 +15673,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15697,7 +15693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15711,7 +15707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15725,7 +15721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15739,7 +15735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>743</v>
       </c>
@@ -15759,7 +15755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15773,7 +15769,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15787,7 +15783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -15801,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15815,7 +15811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15835,7 +15831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15849,7 +15845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15863,7 +15859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15883,7 +15879,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15897,7 +15893,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15911,7 +15907,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15925,7 +15921,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15939,7 +15935,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15959,7 +15955,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15973,7 +15969,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15987,7 +15983,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -16001,7 +15997,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -16021,7 +16017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -16035,7 +16031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -16049,7 +16045,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>29</v>
       </c>
@@ -16063,7 +16059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>30</v>
       </c>
@@ -16077,7 +16073,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -16097,7 +16093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -16117,7 +16113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -16131,7 +16127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -16145,7 +16141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>30</v>
       </c>
@@ -16159,7 +16155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -16179,7 +16175,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>23</v>
       </c>
@@ -16193,7 +16189,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>19</v>
       </c>
@@ -16207,7 +16203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -16221,7 +16217,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -16235,7 +16231,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -16252,7 +16248,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -16272,7 +16268,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>29</v>
       </c>
@@ -16286,7 +16282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>30</v>
       </c>
@@ -16300,7 +16296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>36</v>
       </c>
@@ -16314,7 +16310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>210</v>
       </c>
@@ -16334,7 +16330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>20</v>
       </c>
@@ -16348,7 +16344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>29</v>
       </c>
@@ -16362,7 +16358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>30</v>
       </c>
@@ -16376,7 +16372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>36</v>
       </c>
@@ -16390,7 +16386,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -16410,7 +16406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -16424,7 +16420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>442</v>
       </c>
@@ -16444,7 +16440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>233</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>233</v>
       </c>
@@ -16472,7 +16468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>30</v>
       </c>
@@ -16501,20 +16497,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16534,7 +16530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16554,7 +16550,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16568,7 +16564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -16582,7 +16578,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -16602,7 +16598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16616,7 +16612,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16630,7 +16626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -16644,7 +16640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -16658,7 +16654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>531</v>
       </c>
@@ -16678,7 +16674,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16692,7 +16688,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -16712,7 +16708,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -16726,7 +16722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -16740,7 +16736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16754,7 +16750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16774,7 +16770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16788,7 +16784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16802,7 +16798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16816,7 +16812,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16830,7 +16826,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16844,7 +16840,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16864,7 +16860,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16884,7 +16880,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16898,7 +16894,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16918,7 +16914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -16932,7 +16928,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16952,7 +16948,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>20</v>
       </c>
@@ -16966,7 +16962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16980,7 +16976,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -17000,7 +16996,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17014,7 +17010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -17028,7 +17024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17042,7 +17038,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17056,7 +17052,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17070,7 +17066,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17090,7 +17086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -17104,7 +17100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17118,7 +17114,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17132,7 +17128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17146,7 +17142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17166,7 +17162,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -17180,7 +17176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17200,7 +17196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17214,7 +17210,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17228,7 +17224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17242,7 +17238,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17262,7 +17258,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17276,7 +17272,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17296,7 +17292,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>20</v>
       </c>
@@ -17310,7 +17306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -17324,7 +17320,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17338,7 +17334,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -17352,7 +17348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17372,7 +17368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17386,7 +17382,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17400,7 +17396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17414,7 +17410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17428,7 +17424,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17448,7 +17444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17462,7 +17458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17476,7 +17472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17490,7 +17486,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17504,7 +17500,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17524,7 +17520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -17538,7 +17534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17552,7 +17548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17572,7 +17568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17586,7 +17582,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20658" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E001B32-5655-4219-88D8-A98C8B667A5F}"/>
+  <xr:revisionPtr revIDLastSave="20665" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F6304E-6990-4DDB-B465-1ACE427201FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="741">
   <si>
     <t>ROUND</t>
   </si>
@@ -1568,15 +1568,6 @@
   </si>
   <si>
     <t>6-4 7-6(5)</t>
-  </si>
-  <si>
-    <t>3-6 7-6(5) 19-17</t>
-  </si>
-  <si>
-    <t>6-1 4-6 6-3</t>
-  </si>
-  <si>
-    <t>6-3 7-6(2)</t>
   </si>
   <si>
     <t>6-3 7-6(3) 6-1</t>
@@ -5151,17 +5142,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -5201,7 +5192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +5206,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -5243,7 +5234,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5268,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>254</v>
       </c>
@@ -5311,7 +5302,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -5325,7 +5316,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -5367,7 +5358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -5387,7 +5378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5392,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -5415,7 +5406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5420,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>265</v>
       </c>
@@ -5449,7 +5440,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5483,7 +5474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -5503,7 +5494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -5517,7 +5508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -5551,7 +5542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>273</v>
       </c>
@@ -5585,7 +5576,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>274</v>
       </c>
@@ -5605,7 +5596,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -5619,7 +5610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5624,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -5647,7 +5638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5652,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5681,7 +5672,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +5686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5715,7 +5706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -5729,7 +5720,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -5767,17 +5758,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -5814,10 +5805,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +5822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -5845,12 +5836,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5859,7 +5850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5870,32 +5861,32 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5904,7 +5895,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -5913,7 +5904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -5924,10 +5915,10 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -5941,9 +5932,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -5952,13 +5943,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5978,17 +5969,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6008,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -6028,7 +6019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -6039,10 +6030,10 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6053,10 +6044,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -6067,13 +6058,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6089,21 +6080,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6134,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6143,12 +6134,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6157,12 +6148,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6171,7 +6162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -6196,7 +6187,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -6205,7 +6196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -6216,10 +6207,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6230,21 +6221,21 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -6253,7 +6244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -6264,7 +6255,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -6273,12 +6264,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -6287,7 +6278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -6301,9 +6292,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -6312,30 +6303,30 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6346,7 +6337,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -6355,12 +6346,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -6369,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -6380,10 +6371,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -6397,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6408,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6428,16 +6419,16 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -6448,26 +6439,26 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -6482,15 +6473,15 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6499,35 +6490,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -6538,10 +6529,10 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -6552,10 +6543,10 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6566,30 +6557,30 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -6600,24 +6591,24 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>29</v>
       </c>
@@ -6628,10 +6619,10 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6645,10 +6636,10 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -6659,16 +6650,16 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -6685,10 +6676,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -6702,7 +6693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -6716,12 +6707,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -6730,12 +6721,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -6744,7 +6735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -6755,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -6764,12 +6755,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -6778,7 +6769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>29</v>
       </c>
@@ -6792,7 +6783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6806,10 +6797,10 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>214</v>
       </c>
@@ -6817,7 +6808,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6837,17 +6828,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6867,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6887,21 +6878,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -6915,21 +6906,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -6940,7 +6931,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -6949,7 +6940,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6954,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -6980,10 +6971,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -6994,10 +6985,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -7008,7 +6999,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -7017,7 +7008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -7042,7 +7033,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -7051,12 +7042,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>226</v>
@@ -7065,7 +7056,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -7076,21 +7067,21 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7099,7 +7090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7104,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -7127,9 +7118,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -7138,7 +7129,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -7147,21 +7138,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7172,16 +7163,16 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>23</v>
       </c>
@@ -7192,10 +7183,10 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>19</v>
       </c>
@@ -7206,10 +7197,10 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7220,16 +7211,16 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -7240,10 +7231,10 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -7277,7 +7268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -7297,12 +7288,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -7311,7 +7302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -7328,15 +7319,15 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -7345,12 +7336,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -7359,7 +7350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7370,58 +7361,58 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -7432,10 +7423,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -7446,12 +7437,12 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -7469,21 +7460,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -7494,21 +7485,21 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -7517,12 +7508,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -7531,7 +7522,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -7545,7 +7536,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7556,10 +7547,10 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>412</v>
       </c>
@@ -7570,7 +7561,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -7579,12 +7570,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -7593,7 +7584,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>30</v>
       </c>
@@ -7604,15 +7595,15 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -7621,7 +7612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>210</v>
       </c>
@@ -7632,21 +7623,21 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -7655,12 +7646,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -7669,7 +7660,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>30</v>
       </c>
@@ -7683,7 +7674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>36</v>
       </c>
@@ -7694,10 +7685,10 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -7708,7 +7699,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -7717,12 +7708,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -7731,7 +7722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>29</v>
       </c>
@@ -7742,7 +7733,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7762,17 +7753,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7803,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7812,12 +7803,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7826,7 +7817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -7840,21 +7831,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -7874,21 +7865,21 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -7899,10 +7890,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>473</v>
       </c>
@@ -7913,7 +7904,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7922,21 +7913,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -7956,7 +7947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -7970,26 +7961,26 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7998,7 +7989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -8012,7 +8003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -8023,7 +8014,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -8032,7 +8023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -8046,21 +8037,21 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -8074,12 +8065,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -8088,7 +8079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -8099,10 +8090,10 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8113,16 +8104,16 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -8136,12 +8127,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -8150,21 +8141,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>30</v>
       </c>
@@ -8178,9 +8169,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -8189,7 +8180,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -8198,21 +8189,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8223,7 +8214,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -8232,21 +8223,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -8263,38 +8254,38 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -8308,7 +8299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -8319,10 +8310,10 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -8333,10 +8324,10 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -8347,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -8356,7 +8347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -8367,24 +8358,24 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -8395,10 +8386,10 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>29</v>
       </c>
@@ -8409,12 +8400,12 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -8423,7 +8414,7 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -8432,12 +8423,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -8446,21 +8437,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -8485,7 +8476,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -8494,35 +8485,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -8533,30 +8524,30 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>19</v>
       </c>
@@ -8567,24 +8558,24 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
@@ -8595,10 +8586,10 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -8609,10 +8600,10 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
@@ -8623,12 +8614,12 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -8637,7 +8628,7 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -8646,12 +8637,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -8660,12 +8651,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8674,7 +8665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -8688,12 +8679,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -8702,7 +8693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>437</v>
       </c>
@@ -8719,21 +8710,21 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -8753,17 +8744,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -8794,7 +8785,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -8803,12 +8794,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -8817,23 +8808,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8842,16 +8833,16 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -8862,7 +8853,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -8871,12 +8862,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -8885,7 +8876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -8896,10 +8887,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -8910,58 +8901,58 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -8972,7 +8963,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8981,7 +8972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -9012,17 +9003,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9042,7 +9033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9079,17 +9070,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -9146,17 +9137,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9176,7 +9167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -9214,18 +9205,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -9267,7 +9258,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -9289,7 +9280,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -9311,7 +9302,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -9333,7 +9324,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -9355,7 +9346,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -9376,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -9397,7 +9388,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -9418,7 +9409,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -9439,7 +9430,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -9460,7 +9451,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -9481,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -9502,7 +9493,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -9523,7 +9514,7 @@
         <v>0.57894736842105265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -9544,7 +9535,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -9565,7 +9556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -9586,7 +9577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -9607,7 +9598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -9628,7 +9619,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9653,7 +9644,7 @@
         <v>0.5901639344262295</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -9704,17 +9695,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9734,7 +9725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -9754,7 +9745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
@@ -9774,7 +9765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -9788,7 +9779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -9808,7 +9799,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -9828,7 +9819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -9848,7 +9839,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -9868,7 +9859,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>304</v>
       </c>
@@ -9888,7 +9879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -9902,7 +9893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -9916,7 +9907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -9930,7 +9921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>36</v>
       </c>
@@ -9944,7 +9935,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -9964,7 +9955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -9978,7 +9969,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -9998,7 +9989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -10018,7 +10009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -10032,7 +10023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -10052,7 +10043,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>97</v>
       </c>
@@ -10066,7 +10057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10094,7 +10085,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -10114,7 +10105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -10134,7 +10125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -10162,7 +10153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -10182,7 +10173,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -10202,7 +10193,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -10216,7 +10207,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10221,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -10250,7 +10241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -10264,7 +10255,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10269,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>316</v>
       </c>
@@ -10298,7 +10289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>20</v>
       </c>
@@ -10312,7 +10303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
@@ -10326,7 +10317,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10331,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>36</v>
       </c>
@@ -10354,7 +10345,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -10374,7 +10365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>97</v>
       </c>
@@ -10388,7 +10379,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>98</v>
       </c>
@@ -10402,7 +10393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>22</v>
       </c>
@@ -10416,7 +10407,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -10436,7 +10427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -10450,7 +10441,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -10470,7 +10461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -10484,7 +10475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>20</v>
       </c>
@@ -10498,7 +10489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -10518,7 +10509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -10538,7 +10529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -10552,7 +10543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -10566,7 +10557,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -10586,7 +10577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -10600,7 +10591,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -10614,7 +10605,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -10634,7 +10625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -10666,17 +10657,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10696,7 +10687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -10716,7 +10707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>233</v>
       </c>
@@ -10730,7 +10721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -10744,7 +10735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -10758,7 +10749,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -10778,7 +10769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -10798,7 +10789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -10812,7 +10803,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -10829,7 +10820,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -10849,7 +10840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -10863,7 +10854,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>399</v>
       </c>
@@ -10883,7 +10874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>233</v>
       </c>
@@ -10897,7 +10888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -10917,7 +10908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10922,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>402</v>
       </c>
@@ -10951,7 +10942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +10956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10985,7 +10976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -10999,7 +10990,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11013,7 +11004,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -11027,7 +11018,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -11044,7 +11035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>218</v>
       </c>
@@ -11055,7 +11046,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11075,7 +11066,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -11089,7 +11080,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +11100,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -11129,7 +11120,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11149,7 +11140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -11183,7 +11174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>20</v>
       </c>
@@ -11197,7 +11188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>29</v>
       </c>
@@ -11211,7 +11202,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -11231,7 +11222,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11236,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>408</v>
       </c>
@@ -11265,7 +11256,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -11279,7 +11270,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -11299,7 +11290,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11319,7 +11310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -11339,7 +11330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>97</v>
       </c>
@@ -11353,7 +11344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>23</v>
       </c>
@@ -11367,7 +11358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11381,7 +11372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>20</v>
       </c>
@@ -11395,7 +11386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -11415,7 +11406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11420,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -11449,7 +11440,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -11463,7 +11454,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -11477,7 +11468,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -11497,7 +11488,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -11517,7 +11508,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>412</v>
       </c>
@@ -11537,7 +11528,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -11557,7 +11548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>19</v>
       </c>
@@ -11571,7 +11562,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>20</v>
       </c>
@@ -11585,7 +11576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -11605,7 +11596,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
@@ -11619,7 +11610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>97</v>
       </c>
@@ -11653,7 +11644,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>23</v>
       </c>
@@ -11667,7 +11658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>19</v>
       </c>
@@ -11695,21 +11686,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -11749,7 +11740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -11769,7 +11760,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11774,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11803,7 +11794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -11817,7 +11808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11837,7 +11828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>97</v>
       </c>
@@ -11851,7 +11842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -11871,7 +11862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -11885,7 +11876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -11899,7 +11890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -11919,7 +11910,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>97</v>
       </c>
@@ -11933,7 +11924,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -11947,7 +11938,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -11967,7 +11958,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -11981,7 +11972,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -12001,7 +11992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -12015,7 +12006,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +12020,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -12043,7 +12034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12063,7 +12054,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12077,7 +12068,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -12097,7 +12088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -12111,7 +12102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -12125,7 +12116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -12139,7 +12130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -12153,7 +12144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -12173,7 +12164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -12187,7 +12178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -12201,7 +12192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -12215,7 +12206,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>425</v>
       </c>
@@ -12249,7 +12240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>29</v>
       </c>
@@ -12263,7 +12254,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>30</v>
       </c>
@@ -12277,7 +12268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>36</v>
       </c>
@@ -12291,7 +12282,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -12311,7 +12302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>20</v>
       </c>
@@ -12325,7 +12316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>29</v>
       </c>
@@ -12339,7 +12330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>30</v>
       </c>
@@ -12353,7 +12344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -12367,7 +12358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -12387,7 +12378,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +12392,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12406,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>20</v>
       </c>
@@ -12429,7 +12420,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>29</v>
       </c>
@@ -12443,7 +12434,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -12460,7 +12451,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>83</v>
       </c>
@@ -12471,7 +12462,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -12491,7 +12482,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -12505,7 +12496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>30</v>
       </c>
@@ -12533,7 +12524,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>36</v>
       </c>
@@ -12547,7 +12538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -12567,7 +12558,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -12581,7 +12572,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -12601,7 +12592,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -12615,7 +12606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -12649,7 +12640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>20</v>
       </c>
@@ -12663,7 +12654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>29</v>
       </c>
@@ -12677,7 +12668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -12691,7 +12682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -12711,7 +12702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -12725,7 +12716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -12745,7 +12736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -12759,7 +12750,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>
@@ -12773,7 +12764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -12808,17 +12799,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12838,7 +12829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -12858,7 +12849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -12872,7 +12863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -12886,7 +12877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
@@ -12900,7 +12891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -12920,7 +12911,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -12934,7 +12925,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -12948,7 +12939,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -12962,7 +12953,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -12976,7 +12967,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>429</v>
       </c>
@@ -12996,7 +12987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -13010,7 +13001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -13024,7 +13015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -13044,7 +13035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -13072,7 +13063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -13092,7 +13083,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -13106,7 +13097,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -13120,7 +13111,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -13154,7 +13145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -13168,7 +13159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -13182,7 +13173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>29</v>
       </c>
@@ -13196,7 +13187,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>30</v>
       </c>
@@ -13210,7 +13201,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -13230,7 +13221,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -13250,7 +13241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -13264,7 +13255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>29</v>
       </c>
@@ -13278,9 +13269,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -13298,7 +13289,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>20</v>
       </c>
@@ -13312,7 +13303,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -13340,7 +13331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -13360,7 +13351,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -13374,7 +13365,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -13388,7 +13379,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -13402,7 +13393,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -13416,7 +13407,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -13430,7 +13421,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -13450,7 +13441,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>23</v>
       </c>
@@ -13464,7 +13455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -13481,7 +13472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>434</v>
       </c>
@@ -13492,7 +13483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -13512,7 +13503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -13526,7 +13517,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -13540,7 +13531,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>30</v>
       </c>
@@ -13554,7 +13545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -13568,7 +13559,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -13588,7 +13579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -13602,7 +13593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>29</v>
       </c>
@@ -13616,7 +13607,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>30</v>
       </c>
@@ -13630,7 +13621,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>36</v>
       </c>
@@ -13644,7 +13635,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -13664,7 +13655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13669,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>19</v>
       </c>
@@ -13692,7 +13683,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -13706,7 +13697,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>29</v>
       </c>
@@ -13720,7 +13711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>30</v>
       </c>
@@ -13734,7 +13725,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13739,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -13768,7 +13759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>437</v>
       </c>
@@ -13788,7 +13779,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -13808,7 +13799,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>20</v>
       </c>
@@ -13822,7 +13813,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>29</v>
       </c>
@@ -13836,7 +13827,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>442</v>
       </c>
@@ -13856,7 +13847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>233</v>
       </c>
@@ -13870,7 +13861,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -13884,7 +13875,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -13898,7 +13889,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>36</v>
       </c>
@@ -13930,17 +13921,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13960,7 +13951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13971,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -13994,7 +13985,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14008,7 +13999,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -14022,7 +14013,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -14042,7 +14033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -14079,17 +14070,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -14129,7 +14120,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -14143,7 +14134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -14163,7 +14154,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -14177,7 +14168,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -14197,7 +14188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -14211,7 +14202,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>29</v>
       </c>
@@ -14225,7 +14216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -14239,7 +14230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -14259,7 +14250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -14273,7 +14264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -14287,7 +14278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -14301,7 +14292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>473</v>
       </c>
@@ -14321,7 +14312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -14335,7 +14326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -14349,7 +14340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>23</v>
       </c>
@@ -14411,7 +14402,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -14425,7 +14416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -14439,7 +14430,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -14467,7 +14458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -14487,7 +14478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +14492,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14515,7 +14506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -14529,7 +14520,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -14549,7 +14540,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>20</v>
       </c>
@@ -14563,7 +14554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>29</v>
       </c>
@@ -14577,7 +14568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>30</v>
       </c>
@@ -14591,7 +14582,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>36</v>
       </c>
@@ -14605,9 +14596,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -14625,7 +14616,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>19</v>
       </c>
@@ -14639,7 +14630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -14653,7 +14644,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -14673,7 +14664,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>23</v>
       </c>
@@ -14687,7 +14678,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -14701,7 +14692,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -14721,7 +14712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -14735,7 +14726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -14749,7 +14740,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14760,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -14783,7 +14774,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14797,7 +14788,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -14811,7 +14802,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -14828,7 +14819,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>484</v>
       </c>
@@ -14848,7 +14839,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>29</v>
       </c>
@@ -14862,7 +14853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -14882,7 +14873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>19</v>
       </c>
@@ -14896,7 +14887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14916,7 +14907,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>19</v>
       </c>
@@ -14930,7 +14921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14950,7 +14941,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>23</v>
       </c>
@@ -14964,7 +14955,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>19</v>
       </c>
@@ -14978,7 +14969,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14995,7 +14986,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>195</v>
       </c>
@@ -15006,7 +14997,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>412</v>
       </c>
@@ -15026,7 +15017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>143</v>
       </c>
@@ -15046,7 +15037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>29</v>
       </c>
@@ -15060,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>30</v>
       </c>
@@ -15074,7 +15065,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15079,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>489</v>
       </c>
@@ -15108,7 +15099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>20</v>
       </c>
@@ -15122,7 +15113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>29</v>
       </c>
@@ -15136,7 +15127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>30</v>
       </c>
@@ -15150,7 +15141,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -15167,7 +15158,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>196</v>
       </c>
@@ -15189,23 +15180,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15225,7 +15216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -15245,7 +15236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -15259,7 +15250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15276,10 +15267,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -15290,10 +15281,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -15304,10 +15295,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -15321,7 +15312,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>29</v>
       </c>
@@ -15332,12 +15323,12 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -15352,15 +15343,15 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -15369,7 +15360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -15383,7 +15374,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
       </c>
@@ -15397,7 +15388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -15411,9 +15402,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -15428,10 +15419,10 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -15445,7 +15436,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -15456,10 +15447,10 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>36</v>
       </c>
@@ -15473,9 +15464,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -15484,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -15493,12 +15484,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -15507,7 +15498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -15518,10 +15509,10 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -15532,10 +15523,10 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -15546,7 +15537,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -15555,7 +15546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -15569,7 +15560,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -15580,10 +15571,10 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>29</v>
       </c>
@@ -15597,7 +15588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -15617,7 +15608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15631,7 +15622,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -15645,7 +15636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -15659,10 +15650,10 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>214</v>
       </c>
@@ -15670,10 +15661,10 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>405</v>
       </c>
@@ -15684,7 +15675,7 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -15693,7 +15684,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -15721,7 +15712,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -15735,9 +15726,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -15755,7 +15746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>19</v>
       </c>
@@ -15766,10 +15757,10 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>20</v>
       </c>
@@ -15783,12 +15774,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -15797,7 +15788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>30</v>
       </c>
@@ -15808,10 +15799,10 @@
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -15828,10 +15819,10 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +15836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -15859,7 +15850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -15876,10 +15867,10 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15890,10 +15881,10 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -15904,10 +15895,10 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>20</v>
       </c>
@@ -15918,10 +15909,10 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>29</v>
       </c>
@@ -15932,10 +15923,10 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -15946,16 +15937,16 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -15966,10 +15957,10 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -15980,10 +15971,10 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -15997,153 +15988,153 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>540</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
         <v>539</v>
       </c>
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>472</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+      <c r="D74" t="s">
+        <v>538</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>20</v>
       </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+      <c r="D75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>29</v>
-      </c>
-      <c r="D68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>540</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>30</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -16152,46 +16143,35 @@
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" t="s">
-        <v>543</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>542</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
         <v>541</v>
@@ -16200,119 +16180,130 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>533</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>542</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" t="s">
         <v>18</v>
       </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -16327,158 +16318,82 @@
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>16</v>
+        <v>432</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" t="s">
-        <v>475</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
       <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>30</v>
       </c>
-      <c r="D94" t="s">
-        <v>232</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
       <c r="D97" t="s">
-        <v>95</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" t="s">
-        <v>432</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>442</v>
-      </c>
-      <c r="B100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" t="s">
-        <v>195</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>233</v>
-      </c>
-      <c r="D102" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" t="s">
-        <v>79</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16500,17 +16415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16530,7 +16445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16547,10 +16462,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -16561,26 +16476,26 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -16589,7 +16504,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -16598,7 +16513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -16609,10 +16524,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -16626,12 +16541,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -16640,12 +16555,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -16654,9 +16569,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -16671,10 +16586,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>29</v>
       </c>
@@ -16688,9 +16603,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -16705,15 +16620,15 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -16722,12 +16637,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -16736,7 +16651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -16770,12 +16685,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -16784,7 +16699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -16798,7 +16713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>29</v>
       </c>
@@ -16809,10 +16724,10 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -16826,7 +16741,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -16837,10 +16752,10 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -16851,7 +16766,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -16860,7 +16775,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16871,7 +16786,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -16880,7 +16795,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>20</v>
       </c>
@@ -16891,10 +16806,10 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -16905,7 +16820,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -16914,12 +16829,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -16928,7 +16843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -16939,21 +16854,21 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -16962,7 +16877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>29</v>
       </c>
@@ -16973,10 +16888,10 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -16987,7 +16902,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -16996,7 +16911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>23</v>
       </c>
@@ -17007,24 +16922,24 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -17035,10 +16950,10 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -17049,10 +16964,10 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -17063,10 +16978,10 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -17077,7 +16992,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -17086,12 +17001,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -17100,7 +17015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>29</v>
       </c>
@@ -17111,10 +17026,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>30</v>
       </c>
@@ -17128,7 +17043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>36</v>
       </c>
@@ -17139,10 +17054,10 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -17159,15 +17074,15 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
@@ -17176,7 +17091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -17196,7 +17111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -17207,10 +17122,10 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -17221,10 +17136,10 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -17235,10 +17150,10 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -17255,10 +17170,10 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>23</v>
       </c>
@@ -17269,10 +17184,10 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17289,15 +17204,15 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -17306,21 +17221,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>30</v>
       </c>
@@ -17331,24 +17246,24 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>437</v>
       </c>
@@ -17365,10 +17280,10 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -17382,7 +17297,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>29</v>
       </c>
@@ -17396,7 +17311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>30</v>
       </c>
@@ -17410,7 +17325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>36</v>
       </c>
@@ -17421,10 +17336,10 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -17435,7 +17350,7 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -17444,7 +17359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
@@ -17458,7 +17373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>29</v>
       </c>
@@ -17472,7 +17387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>30</v>
       </c>
@@ -17483,10 +17398,10 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>36</v>
       </c>
@@ -17497,10 +17412,10 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -17520,12 +17435,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -17534,7 +17449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>29</v>
       </c>
@@ -17545,10 +17460,10 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -17565,10 +17480,10 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>233</v>
       </c>
@@ -17579,10 +17494,10 @@
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>233</v>
       </c>

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20665" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F6304E-6990-4DDB-B465-1ACE427201FF}"/>
+  <xr:revisionPtr revIDLastSave="20667" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA30A2E-2F72-4E4D-8E9D-601390CB92E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -1645,9 +1645,6 @@
     <t>6-7(6) 6-4 RETIRED</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Alexandr Dolgopolov (UKRAINE)</t>
   </si>
   <si>
@@ -2276,6 +2273,9 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -4751,7 +4751,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4763,7 +4763,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4774,7 +4774,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5138,7 +5138,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5754,13 +5754,13 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
@@ -5805,7 +5805,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5841,7 +5841,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -5861,13 +5861,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5875,13 +5875,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5895,7 +5895,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -5915,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5934,7 +5934,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>740</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -5943,13 +5943,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -5965,7 +5965,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6030,7 +6030,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6058,13 +6058,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6080,7 +6080,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6125,7 +6125,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6139,7 +6139,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6153,7 +6153,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6187,7 +6187,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -6207,7 +6207,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6221,13 +6221,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -6255,7 +6255,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -6269,7 +6269,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -6303,13 +6303,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6317,13 +6317,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -6351,7 +6351,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -6371,7 +6371,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6419,13 +6419,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6447,18 +6447,18 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -6473,7 +6473,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6481,7 +6481,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6495,13 +6495,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6509,13 +6509,13 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,13 +6557,13 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6571,13 +6571,13 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,7 +6591,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6599,13 +6599,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,7 +6619,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6636,7 +6636,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,13 +6650,13 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -6726,7 +6726,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -6746,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -6760,7 +6760,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -6797,7 +6797,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6808,7 +6808,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6824,7 +6824,7 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6883,13 +6883,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,13 +6911,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -6971,7 +6971,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +6999,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -7033,7 +7033,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -7047,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>226</v>
@@ -7067,13 +7067,13 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7081,7 +7081,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -7129,7 +7129,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -7143,13 +7143,13 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -7163,13 +7163,13 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7197,7 +7197,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7211,13 +7211,13 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7231,7 +7231,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,7 +7293,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -7319,7 +7319,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -7341,7 +7341,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -7361,13 +7361,13 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7375,13 +7375,13 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -7389,13 +7389,13 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -7403,13 +7403,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7423,7 +7423,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -7437,12 +7437,12 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -7465,13 +7465,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,13 +7485,13 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,7 +7499,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -7513,7 +7513,7 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -7547,7 +7547,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -7575,7 +7575,7 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -7595,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7603,7 +7603,7 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -7623,13 +7623,13 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7637,7 +7637,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -7651,7 +7651,7 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
@@ -7685,7 +7685,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7699,7 +7699,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -7713,7 +7713,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -7733,7 +7733,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -7749,7 +7749,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7794,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7808,7 +7808,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7836,13 +7836,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -7870,13 +7870,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7918,13 +7918,13 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,13 +7966,13 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8014,7 +8014,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -8042,13 +8042,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8070,7 +8070,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -8090,7 +8090,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8104,13 +8104,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8132,7 +8132,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -8146,13 +8146,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -8180,7 +8180,7 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -8194,13 +8194,13 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8214,7 +8214,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -8228,13 +8228,13 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8254,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8262,7 +8262,7 @@
         <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -8276,13 +8276,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,7 +8310,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8324,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8338,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -8358,7 +8358,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,13 +8366,13 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8400,12 +8400,12 @@
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -8414,7 +8414,7 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -8428,7 +8428,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -8442,13 +8442,13 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8476,7 +8476,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -8490,13 +8490,13 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8504,13 +8504,13 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8524,13 +8524,13 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8538,13 +8538,13 @@
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8558,7 +8558,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8566,13 +8566,13 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8586,7 +8586,7 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8600,7 +8600,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -8614,12 +8614,12 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -8628,7 +8628,7 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -8642,7 +8642,7 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -8656,7 +8656,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8684,7 +8684,7 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -8710,7 +8710,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8718,13 +8718,13 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
+        <v>730</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
         <v>731</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -8740,7 +8740,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8785,7 +8785,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -8799,7 +8799,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -8813,18 +8813,18 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8833,13 +8833,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8853,7 +8853,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -8867,7 +8867,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8901,13 +8901,13 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,13 +8915,13 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8929,13 +8929,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8943,13 +8943,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8963,7 +8963,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8999,7 +8999,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9066,7 +9066,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9201,7 +9201,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9691,7 +9691,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10653,7 +10653,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11686,7 +11686,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12795,7 +12795,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13271,7 +13271,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -13917,7 +13917,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14066,7 +14066,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14598,7 +14598,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -15182,13 +15182,13 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>740</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -15475,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -15489,7 +15489,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -15537,7 +15537,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -15675,7 +15675,7 @@
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -15779,7 +15779,7 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -15937,7 +15937,7 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -16047,7 +16047,7 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -16081,7 +16081,7 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -16095,7 +16095,7 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -16109,7 +16109,7 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -16174,7 +16174,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -16188,7 +16188,7 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
@@ -16216,7 +16216,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -16250,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -16411,7 +16411,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16462,7 +16462,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16476,7 +16476,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16484,13 +16484,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -16504,7 +16504,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -16524,7 +16524,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -16546,7 +16546,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -16560,7 +16560,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -16586,7 +16586,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16605,7 +16605,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>740</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -16620,7 +16620,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -16628,7 +16628,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -16642,7 +16642,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -16690,7 +16690,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -16724,7 +16724,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16752,7 +16752,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -16766,7 +16766,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -16786,7 +16786,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -16806,7 +16806,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -16820,7 +16820,7 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -16834,7 +16834,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -16854,13 +16854,13 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -16868,7 +16868,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -16888,7 +16888,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16902,7 +16902,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -16922,7 +16922,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -16930,13 +16930,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -16950,7 +16950,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16964,7 +16964,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -16992,7 +16992,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -17006,7 +17006,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -17026,7 +17026,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17054,7 +17054,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -17074,7 +17074,7 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -17082,7 +17082,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
@@ -17122,7 +17122,7 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -17136,7 +17136,7 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -17150,7 +17150,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -17170,7 +17170,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -17184,7 +17184,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -17204,7 +17204,7 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -17212,7 +17212,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -17226,13 +17226,13 @@
         <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -17246,7 +17246,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -17254,13 +17254,13 @@
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -17280,7 +17280,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -17336,7 +17336,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -17350,7 +17350,7 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -17398,7 +17398,7 @@
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -17412,7 +17412,7 @@
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -17440,7 +17440,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -17460,7 +17460,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -17480,7 +17480,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -17494,7 +17494,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20667" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA30A2E-2F72-4E4D-8E9D-601390CB92E7}"/>
+  <xr:revisionPtr revIDLastSave="20674" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54408B0-355B-47AB-AFB7-618C2D2BF660}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <sheet name="2020" sheetId="27" r:id="rId16"/>
     <sheet name="2021" sheetId="33" r:id="rId17"/>
     <sheet name="2022" sheetId="28" r:id="rId18"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId19"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId20"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId21"/>
+    <sheet name="Stats" sheetId="1" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2481,7 +2479,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2502,7 +2500,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2565,7 +2563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$19</c:f>
+              <c:f>Stats!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2628,7 +2626,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000000-A3C0-4D09-A2AE-FE63B743B5AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2637,7 +2635,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2658,7 +2656,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2721,7 +2719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$19</c:f>
+              <c:f>Stats!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2784,7 +2782,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000001-A3C0-4D09-A2AE-FE63B743B5AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3086,6 +3084,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3180,7 +3183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3229,7 +3232,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$19</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3292,7 +3295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$19</c:f>
+              <c:f>Stats!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3356,7 +3359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
+              <c16:uniqueId val="{00000001-9140-4D9E-A5DE-38ACBF179973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3658,6 +3661,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4747,46 +4755,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981538DE-B3CD-5BA3-36C4-6695C995184A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4799,27 +4792,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B0AD43-8318-9BE2-EC65-DA3DFF0DD43C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4827,13 +4823,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9133,7 +9133,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9201,8 +9201,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9681,6 +9681,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
+++ b/Tennis/ATP Tour/Juan Martín Del Potro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20674" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54408B0-355B-47AB-AFB7-618C2D2BF660}"/>
+  <xr:revisionPtr revIDLastSave="20675" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0C0B9EA-9D15-4983-9FA7-4A3D51A51702}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4803,8 +4803,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9202,7 +9202,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
